--- a/biology/Botanique/Sanchezia/Sanchezia.xlsx
+++ b/biology/Botanique/Sanchezia/Sanchezia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Sanchezia regroupe une vingtaine d'espèces de plantes à fleurs de la famille des Acanthacées originaires des régions tropicales d'Amérique.
 </t>
@@ -511,9 +523,11 @@
           <t>Etymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de genre fut donné en hommage à Josepho Sanchez qui fut auditeur au jardin botanique de Madrid et professeur de botanique à l'université de Cadix[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de genre fut donné en hommage à Josepho Sanchez qui fut auditeur au jardin botanique de Madrid et professeur de botanique à l'université de Cadix.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon "The Plant List"[2]   6 octobre 2012
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon "The Plant List"   6 octobre 2012
 Sanchezia arborea Leonard &amp; L.B. Sm. , (1964)
 Sanchezia aurantiaca Leonard &amp; L.B. Sm. , (1964)
 Sanchezia aurea Leonard &amp; L.B. Sm. , (1964)
@@ -596,13 +612,13 @@
 Sanchezia williamsii Leonard , (1932)
 Sanchezia woytkowskii Leonard &amp; L.B. Sm. , (1964)
 Sanchezia xantha Leonard &amp; L.B. Sm. , (1964)
-Selon NCBI  (3 Aug 2010)[3] :
+Selon NCBI  (3 Aug 2010) :
 Sanchezia lutea
 Sanchezia nobilis
 Sanchezia parvibracteata
 Sanchezia skutchii
 Sanchezia speciosa
-Selon ITIS      (3 Aug 2010)[4] :
+Selon ITIS      (3 Aug 2010) :
 Sanchezia nobilis Hook. f.
 Sanchezia speciosa Leonard</t>
         </is>
@@ -632,9 +648,11 @@
           <t>Espèces aux noms synonymes, obsolètes et leurs taxons de référence</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon "The Plant List"[2]   6 octobre 2012
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon "The Plant List"   6 octobre 2012
 Sanchezia habra Leonard &amp; L.B. Sm. = Sanchezia macrocnemis (Nees) Wassh. , (1883)
 Sanchezia helophila Leonard &amp; L.B. Sm. = Sanchezia oblonga Ruiz &amp; Pav. , (1798)
 Sanchezia hirsuta Pers.  = Sanchezia oblonga Ruiz &amp; Pav. , (1798)
@@ -671,9 +689,11 @@
           <t>Espèces au statut non encore résolu</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon "The Plant List"[2]   6 octobre 2012
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon "The Plant List"   6 octobre 2012
 Sanchezia colombiana Parnell
 Sanchezia fosteri Wassh.
 Sanchezia glabra Pers.
